--- a/entrytask-测试用例.xlsx
+++ b/entrytask-测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16900"/>
+    <workbookView windowHeight="14400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
   <si>
     <t>测试用例分类</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>国内机票搜索界面跳转</t>
+  </si>
+  <si>
+    <t>p1</t>
   </si>
   <si>
     <t>1.点击网址链接https://www.qunar.com/
@@ -52,6 +55,9 @@
   </si>
   <si>
     <t>已正常跳转至国内机票搜索界面</t>
+  </si>
+  <si>
+    <t>p2</t>
   </si>
   <si>
     <t>1.点击 国际.港澳台机票
@@ -61,7 +67,7 @@
   <si>
     <t>1.正常切换至 国际.港澳台机票模块
 2.正常切换至 国内机票模块
-3.</t>
+3.切换结果正确</t>
   </si>
   <si>
     <t>国内机票搜索模块组成</t>
@@ -796,10 +802,17 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -812,46 +825,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,26 +863,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -906,7 +896,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -920,7 +932,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -928,22 +956,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -958,37 +971,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,37 +1055,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,103 +1145,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,7 +1178,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,18 +1202,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1221,21 +1238,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1249,161 +1251,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1727,8 +1743,8 @@
   <sheetPr/>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -1771,876 +1787,988 @@
         <v>7</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="53" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="88" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="71" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="88" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" ht="53" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="53" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" ht="88" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" ht="71" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" ht="88" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" ht="71" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" ht="106" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" ht="88" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" ht="106" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" ht="176" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" ht="141" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" ht="88" spans="1:6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" ht="71" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" ht="106" spans="1:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" ht="53" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E17" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" ht="71" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E18" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" ht="71" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="53" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" ht="71" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="22" ht="141" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E22" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" ht="124" spans="1:6">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" ht="53" spans="1:6">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E24" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" ht="36" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E25" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" ht="71" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E26" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" ht="141" spans="1:6">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" ht="141" spans="1:6">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" ht="53" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" ht="71" spans="1:6">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E30" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" ht="71" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E31" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" ht="124" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E32" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" ht="71" spans="1:6">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E33" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" ht="124" spans="1:6">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E34" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" ht="53" spans="1:6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" ht="36" spans="1:6">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" ht="53" spans="1:6">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E36" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" ht="124" spans="1:6">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E37" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" ht="71" spans="1:6">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E38" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" ht="124" spans="1:6">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E39" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" ht="36" spans="1:6">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E40" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" ht="53" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D41" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E41" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" ht="194" spans="1:6">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E42" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" ht="53" spans="1:6">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E43" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" ht="194" spans="1:6">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E44" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" ht="53" spans="1:6">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E45" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" ht="71" spans="1:6">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D46" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E46" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" ht="53" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E47" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" ht="53" spans="1:6">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E48" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" ht="53" spans="1:6">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E49" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" ht="53" spans="1:6">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D50" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E50" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" ht="106" spans="1:6">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D51" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E51" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" ht="53" spans="1:6">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" ht="53" spans="1:6">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="D53" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E53" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" ht="18" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E54" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" ht="18" spans="1:6">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="56" ht="18" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E56" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" ht="18" spans="1:6">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:6">
